--- a/artifacts/data.xlsx
+++ b/artifacts/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivaBhagya\Desktop\ratnakar\iiith\2019-Monsoon\OS_PG\Assignments\assign2\Presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShivaBhagya\Desktop\ratnakar\iiith\2019-Monsoon\OS_PG\Assignments\assign2\final\p2p_filesharing\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD5571-AD74-4D7E-AE9A-DFE029B14A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F0371F-617B-4699-9F97-11F80FBA84C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{8499ECA6-1191-4FB0-8F15-26A49A170D13}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Operation</t>
   </si>
@@ -167,12 +167,18 @@
   <si>
     <t>Users</t>
   </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>User Operations Representation (Commands)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +190,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -289,21 +303,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B55062B4-363C-443B-B713-48CFCBC39327}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E35EA30-EF3B-45F7-8115-AC7853BB770B}">
-  <dimension ref="B5:H33"/>
+  <dimension ref="B4:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +674,14 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -691,44 +745,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -742,13 +787,13 @@
         <v>26</v>
       </c>
       <c r="F13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -762,13 +807,13 @@
         <v>26</v>
       </c>
       <c r="F14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -782,33 +827,33 @@
         <v>26</v>
       </c>
       <c r="F15" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>39</v>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -818,10 +863,18 @@
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -830,10 +883,10 @@
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -842,38 +895,43 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+    </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -885,10 +943,10 @@
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="H17:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
